--- a/biology/Médecine/1870_en_santé_et_médecine/1870_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1870_en_santé_et_médecine/1870_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1870_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1870_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1870 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1870_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1870_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>30 septembre : pillage de l'École impériale du Service de santé militaire de Strasbourg par les troupes allemandes et fin de cette école créée 14 ans plus tôt[1].
-Charles Daremberg inaugure à Paris la première chaire d'histoire de la médecine créée en France[2].
-Le Médecin-inspecteur baron Larrey est médecin en chef de l'armée du Rhin[3] et donc intégré à l'État-major[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>30 septembre : pillage de l'École impériale du Service de santé militaire de Strasbourg par les troupes allemandes et fin de cette école créée 14 ans plus tôt.
+Charles Daremberg inaugure à Paris la première chaire d'histoire de la médecine créée en France.
+Le Médecin-inspecteur baron Larrey est médecin en chef de l'armée du Rhin et donc intégré à l'État-major.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1870_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1870_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>28 novembre : mort du peintre impressionniste Frédéric Bazille (né en 1841) qui a fait des études de médecine sans en obtenir le titre[5]. Il meurt face à l'armée prussienne à la bataille de Beaune-la-Rolande[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>28 novembre : mort du peintre impressionniste Frédéric Bazille (né en 1841) qui a fait des études de médecine sans en obtenir le titre. Il meurt face à l'armée prussienne à la bataille de Beaune-la-Rolande.</t>
         </is>
       </c>
     </row>
